--- a/data/VendorList.xlsx
+++ b/data/VendorList.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F5EAB2-5ED1-4D1D-9312-137F837B5E9D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB3822B-B6B5-4232-93E3-9745805D123C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Facebook</t>
   </si>
@@ -80,25 +80,14 @@
   </si>
   <si>
     <t>Zomato</t>
-  </si>
-  <si>
-    <t>VendorList</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -147,10 +136,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,9 +419,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -442,106 +432,101 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
+      <c r="A5" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
+      <c r="A6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
+      <c r="A7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
+      <c r="A8" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
+      <c r="A9" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
+      <c r="A10" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
+      <c r="A11" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
+      <c r="A12" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
+      <c r="A13" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
+      <c r="A14" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
+      <c r="A15" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
+      <c r="A16" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
+      <c r="A17" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
+      <c r="A18" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
+      <c r="A19" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>

--- a/data/VendorList.xlsx
+++ b/data/VendorList.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB3822B-B6B5-4232-93E3-9745805D123C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{BCD50FA1-773E-4EEC-A187-D52A96133772}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="VendorList" sheetId="1" r:id="rId1"/>
+    <sheet name="VendorList" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Facebook</t>
   </si>
@@ -56,27 +56,6 @@
   </si>
   <si>
     <t>OpenTable</t>
-  </si>
-  <si>
-    <t>YP.ca</t>
-  </si>
-  <si>
-    <t>Touch Local</t>
-  </si>
-  <si>
-    <t>YahooUK</t>
-  </si>
-  <si>
-    <t>Mappy</t>
-  </si>
-  <si>
-    <t>PagesJaunes</t>
-  </si>
-  <si>
-    <t>Scoot</t>
-  </si>
-  <si>
-    <t>Yell</t>
   </si>
   <si>
     <t>Zomato</t>
@@ -86,6 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,17 +114,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -161,10 +141,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -199,7 +179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -234,7 +214,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -328,21 +308,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -359,7 +339,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -411,23 +391,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -495,43 +475,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/data/VendorList.xlsx
+++ b/data/VendorList.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{BCD50FA1-773E-4EEC-A187-D52A96133772}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF75DC17-0084-4C79-8743-8E8429F62BE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="VendorList" r:id="rId1" sheetId="1"/>
+    <sheet name="VendorList" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>Facebook</t>
   </si>
@@ -34,12 +34,6 @@
     <t>Bing</t>
   </si>
   <si>
-    <t>Citysearch</t>
-  </si>
-  <si>
-    <t>MerchantCircle</t>
-  </si>
-  <si>
     <t>Superpages</t>
   </si>
   <si>
@@ -55,17 +49,37 @@
     <t>TripAdvisor</t>
   </si>
   <si>
-    <t>OpenTable</t>
-  </si>
-  <si>
-    <t>Zomato</t>
+    <t>YP.ca</t>
+  </si>
+  <si>
+    <t>Touch Local</t>
+  </si>
+  <si>
+    <t>Scoot</t>
+  </si>
+  <si>
+    <t>Yell</t>
+  </si>
+  <si>
+    <t>All Sites</t>
+  </si>
+  <si>
+    <t>Search Engine Sites</t>
+  </si>
+  <si>
+    <t>Directory Sites</t>
+  </si>
+  <si>
+    <t>Social Sites</t>
+  </si>
+  <si>
+    <t>YahooUK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,21 +89,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -112,19 +134,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -141,10 +177,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -179,7 +215,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -214,7 +250,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -308,21 +344,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -339,7 +375,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -391,92 +427,208 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/VendorList.xlsx
+++ b/data/VendorList.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF75DC17-0084-4C79-8743-8E8429F62BE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E44CF75-97B1-40B4-9B28-D6E4D98F5B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Facebook</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>YahooUK</t>
+  </si>
+  <si>
+    <t>Yahoo UK</t>
   </si>
 </sst>
 </file>
@@ -111,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -134,27 +137,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,7 +430,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +456,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -478,7 +470,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -490,7 +482,7 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -502,17 +494,19 @@
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4"/>
@@ -522,7 +516,7 @@
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="4"/>
@@ -532,7 +526,7 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="4"/>
@@ -542,7 +536,7 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="4"/>
@@ -552,7 +546,7 @@
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4"/>
@@ -562,7 +556,7 @@
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="4"/>
@@ -572,7 +566,7 @@
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="4"/>
@@ -580,7 +574,7 @@
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="4"/>
@@ -588,7 +582,7 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="4"/>
@@ -596,7 +590,7 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="4"/>

--- a/data/VendorList.xlsx
+++ b/data/VendorList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E44CF75-97B1-40B4-9B28-D6E4D98F5B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53616351-9C97-454E-B176-61CC4034FE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7935" yWindow="1755" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VendorList" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Facebook</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Google</t>
   </si>
   <si>
-    <t>Foursquare</t>
-  </si>
-  <si>
     <t>Bing</t>
   </si>
   <si>
@@ -49,18 +46,6 @@
     <t>TripAdvisor</t>
   </si>
   <si>
-    <t>YP.ca</t>
-  </si>
-  <si>
-    <t>Touch Local</t>
-  </si>
-  <si>
-    <t>Scoot</t>
-  </si>
-  <si>
-    <t>Yell</t>
-  </si>
-  <si>
     <t>All Sites</t>
   </si>
   <si>
@@ -71,12 +56,6 @@
   </si>
   <si>
     <t>Social Sites</t>
-  </si>
-  <si>
-    <t>YahooUK</t>
-  </si>
-  <si>
-    <t>Yahoo UK</t>
   </si>
 </sst>
 </file>
@@ -430,7 +409,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,27 +422,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
@@ -471,128 +450,102 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A10" s="3"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
